--- a/References.xlsx
+++ b/References.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>Allart et al 2018</t>
   </si>
@@ -51,18 +51,9 @@
     <t>Ingolfsson 2011</t>
   </si>
   <si>
-    <t>Unclear</t>
-  </si>
-  <si>
     <t>Cites</t>
   </si>
   <si>
-    <t>Liestøl et al 1997</t>
-  </si>
-  <si>
-    <t>"Late Holocene glacier variations have been described by Fitch et al. (1962), Lamb et al. (1962) and Anda, Orheim &amp; Mangerud ( 1985). According to these authors, the glaciers seem to have reached their maximum extension during the Little lce Age around A.D. 1 850</t>
-  </si>
-  <si>
     <t>Midgely and Tonkin 2017</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>Lefauconnier and Hagen 1991</t>
   </si>
   <si>
-    <t>"Original"</t>
-  </si>
-  <si>
     <t>"For other large glaciers, the maximum extension occurred around 1900 or before with no further surge"</t>
   </si>
   <si>
@@ -127,14 +115,106 @@
   </si>
   <si>
     <t>Only says it gets warmer in 1920</t>
+  </si>
+  <si>
+    <t>Hagen et al 2003</t>
+  </si>
+  <si>
+    <t>"show that most Svalbard glaciers have been retreating and thinning since around 1900 (Liestøl 1988)"</t>
+  </si>
+  <si>
+    <t>Liestøl 1988</t>
+  </si>
+  <si>
+    <t>Historic sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hints on larger glaciers in late 1800s (esp. Blomstrand). Says nothing about a 1900s maximum </t>
+  </si>
+  <si>
+    <t>Kind of yes</t>
+  </si>
+  <si>
+    <t>Lefauconnier and Hagen 1990</t>
+  </si>
+  <si>
+    <t>They say that Isachsen thought Lovenbreane and Brøggerbreane had their largest extents in 1907. Therefore they argue that the maximum occurred around 1907. They also argue with the LYB temp record</t>
+  </si>
+  <si>
+    <t>Historic sources and weather</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Lichenometry</t>
+  </si>
+  <si>
+    <t>Unclear citation</t>
+  </si>
+  <si>
+    <t>Hagen and Liestl 1990</t>
+  </si>
+  <si>
+    <t>"The glaciers were close to their late Holocene (Little Ice Age) maximum extension as late as the end of the 19th or beginning of the 20th century. "</t>
+  </si>
+  <si>
+    <t>Sediments plus citation</t>
+  </si>
+  <si>
+    <t>Svendsen and Mangerud 1997</t>
+  </si>
+  <si>
+    <t>No (+ original)</t>
+  </si>
+  <si>
+    <t>" culminating at the most distal moraines during the nineteenth century." Earlier references to Liestøl (1969) which never mentions LIA</t>
+  </si>
+  <si>
+    <t>Liestøl et al 1993</t>
+  </si>
+  <si>
+    <t>JAN MAYEN: "Late Holocene glacier variations have been described by Fitch et al. (1962), Lamb et al. (1962) and Anda, Orheim &amp; Mangerud ( 1985). According to these authors, the glaciers seem to have reached their maximum extension during the Little lce Age around A.D. 1 850"</t>
+  </si>
+  <si>
+    <t>Larsen et al 2018</t>
+  </si>
+  <si>
+    <t>D'Andrea et al 2012</t>
+  </si>
+  <si>
+    <t>Sediments</t>
+  </si>
+  <si>
+    <t>They suggest a slow warming until 1890 when the warming accelerated</t>
+  </si>
+  <si>
+    <t>"Little Ice Age (LIA), which in Svalbard culminated around the start of the last century, is generally considered to be the most extensive of the Holocene glacier advances [4, 22, 24, 32, 34, 68, 71, 72]." (D'Andrea et al., 2012; Humlum et al 2005; Ingolfsson and Landvik, 2013; Landvik et al., 2014; Landvik et al., 1998; Snyder et al., 2000; Svendsen and Mangerud, 1997; Stroeven et al., 2016). [22, 24 and 72] don't even mention the LIA!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -162,11 +242,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,196 +528,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="168.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.73046875" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53125" customWidth="1"/>
+    <col min="4" max="4" width="166.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/References.xlsx
+++ b/References.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Allart et al 2018</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Unclear citation</t>
   </si>
   <si>
-    <t>Hagen and Liestl 1990</t>
-  </si>
-  <si>
     <t>"The glaciers were close to their late Holocene (Little Ice Age) maximum extension as late as the end of the 19th or beginning of the 20th century. "</t>
   </si>
   <si>
@@ -199,6 +196,12 @@
   </si>
   <si>
     <t>"Little Ice Age (LIA), which in Svalbard culminated around the start of the last century, is generally considered to be the most extensive of the Holocene glacier advances [4, 22, 24, 32, 34, 68, 71, 72]." (D'Andrea et al., 2012; Humlum et al 2005; Ingolfsson and Landvik, 2013; Landvik et al., 2014; Landvik et al., 1998; Snyder et al., 2000; Svendsen and Mangerud, 1997; Stroeven et al., 2016). [22, 24 and 72] don't even mention the LIA!</t>
+  </si>
+  <si>
+    <t>Hagen and Liestøl 1990</t>
+  </si>
+  <si>
+    <t>No mention</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -575,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -625,13 +628,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -720,7 +723,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -729,12 +732,12 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -743,21 +746,21 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -832,16 +835,16 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/References.xlsx
+++ b/References.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Allart et al 2018</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>No mention</t>
+  </si>
+  <si>
+    <t>"The major glacier advances during the LIA have been dated in 1890–1900 (Glasser and Hambrey, 2006; Mangerud and Svendsen, 1990), 1900 (Snyder et al., 2000), 1910 (Humlum et al., 2005), and even 1920 (Svendsen and Mangerud, 1997)"</t>
+  </si>
+  <si>
+    <t>Martín-Moreno et al 2017</t>
   </si>
 </sst>
 </file>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -749,65 +755,62 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -816,34 +819,48 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
       </c>
     </row>

--- a/References.xlsx
+++ b/References.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>Allart et al 2018</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Martín-Moreno et al 2017</t>
+  </si>
+  <si>
+    <t>Flink et al</t>
+  </si>
+  <si>
+    <t>"in the late 19th/early 20thcentury (De Geer 1910; Hagen et al. 1993; P€alli et al.2003; Plassen et al. 2004; Ottesen &amp; Dowdeswell 2006;Ottesen et al. 2008)"</t>
   </si>
 </sst>
 </file>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -766,65 +772,62 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -833,34 +836,48 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
         <v>57</v>
       </c>
     </row>

--- a/References.xlsx
+++ b/References.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>Allart et al 2018</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>"in the late 19th/early 20thcentury (De Geer 1910; Hagen et al. 1993; P€alli et al.2003; Plassen et al. 2004; Ottesen &amp; Dowdeswell 2006;Ottesen et al. 2008)"</t>
+  </si>
+  <si>
+    <t>Farnsworth et al 2018</t>
+  </si>
+  <si>
+    <t>"Little Ice Age (LIA), culminating c. 1920CE, were believed to be at their greatest extent since before the Younger Dryas  (YD; Svendsen &amp; Mangerud 1997; Mangerud &amp; Landvik 2007)"</t>
   </si>
 </sst>
 </file>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -783,65 +789,65 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -850,34 +856,48 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
       </c>
       <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
         <v>57</v>
       </c>
     </row>
